--- a/medicine/Enfance/Marie-Florence_Ehret/Marie-Florence_Ehret.xlsx
+++ b/medicine/Enfance/Marie-Florence_Ehret/Marie-Florence_Ehret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Florence Ehret, née en 1950, est une écrivaine, romancière, poète, française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Florence Ehret est née en 1950 à Pigalle à Paris. Elle a suivi des études de philosophie et de lettres[1],[2].
-Elle est publiée pour la première fois en 1986, pour Les confessions de la rouée aux éditions des Cahiers des Brisants[3]avec une préface de Bernard Noël. Elle publie depuis régulièrement chez divers éditeurs. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Florence Ehret est née en 1950 à Pigalle à Paris. Elle a suivi des études de philosophie et de lettres,.
+Elle est publiée pour la première fois en 1986, pour Les confessions de la rouée aux éditions des Cahiers des Brisantsavec une préface de Bernard Noël. Elle publie depuis régulièrement chez divers éditeurs. 
 Elle vit actuellement entre Paris et la Haute-Marne. 
 </t>
         </is>
@@ -546,12 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature générale
-Colette, La scandaleuse Ed Oskar 2023
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Colette, La scandaleuse Ed Oskar 2023
 Angela Davis, Éternelle insoumise Ed Oskar 2022
-Ma mère, ma légende[4], éd Le Pythagore, 2019
+Ma mère, ma légende, éd Le Pythagore, 2019
 Joséphine Baker. Des trottoirs de Saint-Louis aux marches du Panthéon, éd. La Différence, 2016
-Olga Bancic, mère et résistante, éd Oskar 2015[5].
+Olga Bancic, mère et résistante, éd Oskar 2015.
 Jours tranquilles à Langstrasse, éd G&amp;g, 2007
 Avec ou sans papiers nouvelles ed; Chant d'orties
 Corbu 603 , éd. Comp'Act, 2006
@@ -562,15 +581,49 @@
 La Métrographe , éd. de la Différence 1990
 La Catastrophe Ultraviolette , éd. de la Différence 1989
 Salut Barbès , éd. de la Différence 1988
-Les Confessions de la rouée , éd. Cahiers des Brisants, 1986
-Littérature Jeunesse
-Colette, La scandaleuse Ed Oskar 2023
+Les Confessions de la rouée , éd. Cahiers des Brisants, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colette, La scandaleuse Ed Oskar 2023
 Angela Davis, Éternelle insoumise Ed Oskar 2022
 Joséphine Baker. Des trottoirs de Saint-Louis aux marches du Panthéon, éd. La Différence, 2016
-Olga Bancic, mère et résistante, éd Oskar 2015[5].Vol sans effraction, Lire c'est partir, (réédition) 2014
+Olga Bancic, mère et résistante, éd Oskar 2015.Vol sans effraction, Lire c'est partir, (réédition) 2014
 Roger Belbéoch flic et résistant , éd Oskar, collection « Les Justes », 2014
 Emilie et Oskar Schindler, Double jeu contre les nazis , éd Oskar, collection « Les Justes », 2013
-La Falaise , éd. Belin, 2012[6]
+La Falaise , éd. Belin, 2012
 Mon Père , éd. Oskar, 2012
 Juste/injuste , éd Oskar, 2011
 Berlin 73 , éd. Gulf Stream, 2009
@@ -578,17 +631,85 @@
 Nanuk ou les mille vies d'un Inuit , éd Bilboquet, 2008, illustrations Antoine Guillopé
 Le Grand pays dans Histoires de dragons , éd Lito
 La première écuyère avocate du monde dans Histoires de cirque , éditions Lito, 2008
-Fille des crocodiles , édition Thierry Magnier[7]
+Fille des crocodiles , édition Thierry Magnier
 Comme un coquelicot , éditions Bayard, 2005
 Et vogue la galère , éd. Syros « sentiments », 2001
 Vol sans effraction , éd Syros, Collection « Souris Noire », 2000
 Rapt à Bamako (avec Alpha Mandé Diarra), Éditions Le Figuier/Éditions EDICEF, 1999  (ISBN 2-84129-645-8)
 Mortel coup d'œil , éd. Rageot « Cascade Policier » 1999
-À cloche-cœur , éd. Rageot « Cascade », 1990
-Dramatique
-La paix seulement - France Culture 1989
-Poésie
-L’or des jours, éditions Dumerchez
+À cloche-cœur , éd. Rageot « Cascade », 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dramatique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La paix seulement - France Culture 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’or des jours, éditions Dumerchez
 Que la musique, aux Editions de l’Arbre, 2007
 Semer le vent avec Marie-Claude Bugeaud, Bernard Dumerchez (éditions) coll « Double Hache », 2000.
 L'Odyssée immobile, Editions G§g, récit poétique, ayant pour cadre la ville d'Alexandrie, 2000.
@@ -599,46 +720,116 @@
 La leçon du chat « Un récit et un poème », éd. Littéra, 1996
 L’Ordinaire des jours, revue Sapriphage n°29
 Je veux vivre en paix, Verdun, le monde entier, et la cité verte avec Bernard Baudin, Le Bar Floréal, 1992.
-La paix seulement in Aires no 10 : « Scène », 2 avril 1990.
-Livres d'artistes
-La sortie du temps, poème, éditions Alain Benoit accompagné par Anne Slacik, 2008
+La paix seulement in Aires no 10 : « Scène », 2 avril 1990.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres d'artistes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La sortie du temps, poème, éditions Alain Benoit accompagné par Anne Slacik, 2008
 En terre de langue, avec Michel Vicario, éd. Transignum
 Sur la terre comme au ciel avec Klasien Boulloud, éd. Transignum
 L'obscénité des fleurs, éd Alain Benoit , avec 9 monotypes de Marie Alloy, 2003
 L’issue du temps, aux Editions Alain Benoit, 2008, avec Anne Slacik
-Quoi de 9 ?, avec les lithographies originales de Marie-Pierre Darmendrail aux Éditions Royaumont en 1991[8].
-Vidéo
-Paroles mêlées, (10’) court-métrage réalisé par Claire Levassor sur la résidence d'écrivain à Orléans (production GRIV - Orléans), 1993</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Quoi de 9 ?, avec les lithographies originales de Marie-Pierre Darmendrail aux Éditions Royaumont en 1991.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Marie-Florence_Ehret</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Florence_Ehret</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vidéo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paroles mêlées, (10’) court-métrage réalisé par Claire Levassor sur la résidence d'écrivain à Orléans (production GRIV - Orléans), 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Florence_Ehret</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1991 : prix des Bibliothèques pour À cloche-cœur[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1991 : prix des Bibliothèques pour À cloche-cœur.
 2008 : Prix des lycéens allemands 2007-2008 pour
 Fille des crocodiles[réf. souhaitée].
 </t>
